--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VH.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/tabellen/concept/5.1/objectentabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7309FC41-1485-4580-9B84-62D3358DBC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D523CC-FBFF-4B9F-BDCD-2BF6D8D1042B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7309FC41-1485-4580-9B84-62D3358DBC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210A0419-36A6-49ED-9932-9EE52C1F49B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AB435474-7032-4F6F-B85A-24FEFF04EE9E}"/>
+    <workbookView xWindow="735" yWindow="570" windowWidth="28800" windowHeight="15285" xr2:uid="{AB435474-7032-4F6F-B85A-24FEFF04EE9E}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VH" sheetId="1" r:id="rId1"/>
@@ -4464,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B0C15-40E8-4C3C-A7F0-5DD7994B909A}">
   <dimension ref="A1:BG275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H217" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S247" sqref="S247"/>
     </sheetView>
   </sheetViews>

--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VH.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/tabellen/concept/5.1/objectentabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7309FC41-1485-4580-9B84-62D3358DBC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210A0419-36A6-49ED-9932-9EE52C1F49B4}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{7309FC41-1485-4580-9B84-62D3358DBC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A424BD-2032-4F42-922A-C9844449D362}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="570" windowWidth="28800" windowHeight="15285" xr2:uid="{AB435474-7032-4F6F-B85A-24FEFF04EE9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB435474-7032-4F6F-B85A-24FEFF04EE9E}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VH" sheetId="1" r:id="rId1"/>
@@ -4464,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B0C15-40E8-4C3C-A7F0-5DD7994B909A}">
   <dimension ref="A1:BG275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
       <selection activeCell="S247" sqref="S247"/>
     </sheetView>
   </sheetViews>
@@ -4477,7 +4477,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
